--- a/raw_data/20200818_saline/20200818_Sensor2_Test_53.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_53.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411D8BE-FD58-4519-BB2B-C46932EF4EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>47175.301081</v>
+        <v>47175.301080999998</v>
       </c>
       <c r="B2" s="1">
-        <v>13.104250</v>
+        <v>13.10425</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.525000</v>
+        <v>-306.52499999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>47185.692299</v>
+        <v>47185.692299000002</v>
       </c>
       <c r="G2" s="1">
         <v>13.107137</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.870000</v>
+        <v>1268.8699999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.097000</v>
+        <v>-265.09699999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>47196.496619</v>
+        <v>47196.496618999998</v>
       </c>
       <c r="L2" s="1">
-        <v>13.110138</v>
+        <v>13.110137999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.360000</v>
+        <v>1305.3599999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.127000</v>
+        <v>-203.12700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>47207.013822</v>
+        <v>47207.013822000001</v>
       </c>
       <c r="Q2" s="1">
         <v>13.113059</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.220000</v>
+        <v>1317.22</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.119000</v>
+        <v>-185.119</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>47217.593952</v>
+        <v>47217.593952000003</v>
       </c>
       <c r="V2" s="1">
-        <v>13.115998</v>
+        <v>13.115997999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.500000</v>
+        <v>1330.5</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.667000</v>
+        <v>-171.667</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>47228.359617</v>
+        <v>47228.359617000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.118989</v>
+        <v>13.118988999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.990000</v>
+        <v>1347.99</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.290000</v>
+        <v>-169.29</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>47238.863395</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.121906</v>
+        <v>13.121905999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.940000</v>
+        <v>1360.94</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.970000</v>
+        <v>-178.97</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>47249.269958</v>
+        <v>47249.269957999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.124797</v>
+        <v>13.124796999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1381.600000</v>
+        <v>1381.6</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.791000</v>
+        <v>-208.791</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>47260.162599</v>
+        <v>47260.162599000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.127823</v>
+        <v>13.127822999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.492000</v>
+        <v>-252.49199999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>47271.153449</v>
+        <v>47271.153448999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.130876</v>
+        <v>13.130876000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1427.960000</v>
+        <v>1427.96</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.343000</v>
+        <v>-312.34300000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>47282.625419</v>
+        <v>47282.625419000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>13.134063</v>
+        <v>13.134062999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1447.340000</v>
+        <v>1447.34</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.380000</v>
+        <v>-364.38</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>47293.277996</v>
+        <v>47293.277995999997</v>
       </c>
       <c r="BE2" s="1">
         <v>13.137022</v>
       </c>
       <c r="BF2" s="1">
-        <v>1532.670000</v>
+        <v>1532.67</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.143000</v>
+        <v>-612.14300000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>47304.036749</v>
+        <v>47304.036748999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.140010</v>
+        <v>13.14001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1687.210000</v>
+        <v>1687.21</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1056.450000</v>
+        <v>-1056.45</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>47315.065263</v>
+        <v>47315.065262999997</v>
       </c>
       <c r="BO2" s="1">
         <v>13.143074</v>
       </c>
       <c r="BP2" s="1">
-        <v>1981.720000</v>
+        <v>1981.72</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1825.820000</v>
+        <v>-1825.82</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>47326.222273</v>
+        <v>47326.222272999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>13.146173</v>
+        <v>13.146172999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2369.130000</v>
+        <v>2369.13</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2716.100000</v>
+        <v>-2716.1</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>47336.894194</v>
@@ -706,75 +1122,75 @@
         <v>13.149137</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2851.010000</v>
+        <v>2851.01</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3683.080000</v>
+        <v>-3683.08</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>47348.234756</v>
+        <v>47348.234755999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.152287</v>
+        <v>13.152286999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4258.450000</v>
+        <v>4258.45</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6014.200000</v>
+        <v>-6014.2</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>47175.654728</v>
+        <v>47175.654728000001</v>
       </c>
       <c r="B3" s="1">
-        <v>13.104349</v>
+        <v>13.104348999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.490000</v>
+        <v>1244.49</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.838000</v>
+        <v>-306.83800000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>47186.061322</v>
+        <v>47186.061322000001</v>
       </c>
       <c r="G3" s="1">
         <v>13.107239</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.870000</v>
+        <v>1269.8699999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-265.354000</v>
+        <v>-265.35399999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>47196.872588</v>
+        <v>47196.872587999998</v>
       </c>
       <c r="L3" s="1">
         <v>13.110242</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.180000</v>
+        <v>1305.18</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.175000</v>
+        <v>-203.17500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>47207.746412</v>
@@ -783,178 +1199,178 @@
         <v>13.113263</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.040000</v>
+        <v>-185.04</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>47218.306702</v>
+        <v>47218.306702000002</v>
       </c>
       <c r="V3" s="1">
         <v>13.116196</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.460000</v>
+        <v>1330.46</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.770000</v>
+        <v>-171.77</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>47228.706321</v>
+        <v>47228.706320999998</v>
       </c>
       <c r="AA3" s="1">
         <v>13.119085</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.990000</v>
+        <v>1347.99</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.283000</v>
+        <v>-169.28299999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>47239.245811</v>
+        <v>47239.245811000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.122013</v>
+        <v>13.122013000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.940000</v>
+        <v>1360.94</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.943000</v>
+        <v>-178.94300000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>47249.629061</v>
       </c>
       <c r="AK3" s="1">
-        <v>13.124897</v>
+        <v>13.124897000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1381.630000</v>
+        <v>1381.63</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.760000</v>
+        <v>-208.76</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>47260.835702</v>
+        <v>47260.835701999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.128010</v>
+        <v>13.12801</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1403.340000</v>
+        <v>1403.34</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.458000</v>
+        <v>-252.458</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>47271.836440</v>
+        <v>47271.836439999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>13.131066</v>
+        <v>13.131066000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1427.940000</v>
+        <v>1427.94</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.329000</v>
+        <v>-312.32900000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>47283.048505</v>
+        <v>47283.048504999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>13.134180</v>
+        <v>13.134180000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.348000</v>
+        <v>-364.34800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>47293.642092</v>
+        <v>47293.642092000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>13.137123</v>
+        <v>13.137123000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1532.640000</v>
+        <v>1532.64</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.224000</v>
+        <v>-612.22400000000005</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>47304.415166</v>
+        <v>47304.415165999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>13.140115</v>
       </c>
       <c r="BK3" s="1">
-        <v>1687.150000</v>
+        <v>1687.15</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1056.420000</v>
+        <v>-1056.42</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>47315.503726</v>
+        <v>47315.503726000003</v>
       </c>
       <c r="BO3" s="1">
         <v>13.143195</v>
       </c>
       <c r="BP3" s="1">
-        <v>1981.470000</v>
+        <v>1981.47</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1826.030000</v>
+        <v>-1826.03</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>47326.733178</v>
+        <v>47326.733178000002</v>
       </c>
       <c r="BT3" s="1">
         <v>13.146315</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.480000</v>
+        <v>2369.48</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2716.380000</v>
+        <v>-2716.38</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>47337.368401</v>
@@ -963,407 +1379,407 @@
         <v>13.149269</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.950000</v>
+        <v>2851.95</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3683.750000</v>
+        <v>-3683.75</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>47348.530338</v>
+        <v>47348.530337999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.152370</v>
+        <v>13.152369999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4268.070000</v>
+        <v>4268.07</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6029.060000</v>
+        <v>-6029.06</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>47175.997463</v>
       </c>
       <c r="B4" s="1">
-        <v>13.104444</v>
+        <v>13.104444000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.450000</v>
+        <v>1244.45</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.426000</v>
+        <v>-306.42599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>47186.406010</v>
+        <v>47186.406009999999</v>
       </c>
       <c r="G4" s="1">
-        <v>13.107335</v>
+        <v>13.107335000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1270.290000</v>
+        <v>1270.29</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.548000</v>
+        <v>-264.548</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>47197.563019</v>
+        <v>47197.563019000001</v>
       </c>
       <c r="L4" s="1">
         <v>13.110434</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.160000</v>
+        <v>-203.16</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>47208.094108</v>
+        <v>47208.094107999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.113359</v>
+        <v>13.113359000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.270000</v>
+        <v>1317.27</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.009000</v>
+        <v>-185.00899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>47218.653902</v>
+        <v>47218.653901999998</v>
       </c>
       <c r="V4" s="1">
-        <v>13.116293</v>
+        <v>13.116293000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.500000</v>
+        <v>1330.5</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.683000</v>
+        <v>-171.68299999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>47229.053024</v>
+        <v>47229.053024000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>13.119181</v>
+        <v>13.119180999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.980000</v>
+        <v>1347.98</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.330000</v>
+        <v>-169.33</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>47239.877218</v>
+        <v>47239.877218000001</v>
       </c>
       <c r="AF4" s="1">
         <v>13.122188</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.980000</v>
+        <v>1360.98</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.980000</v>
+        <v>-178.98</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>47250.289765</v>
+        <v>47250.289765000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.125080</v>
+        <v>13.125080000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1381.620000</v>
+        <v>1381.62</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.752000</v>
+        <v>-208.75200000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>47261.257766</v>
+        <v>47261.257766000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.128127</v>
+        <v>13.128126999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1403.350000</v>
+        <v>1403.35</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.498000</v>
+        <v>-252.49799999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>47272.256551</v>
+        <v>47272.256550999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.131182</v>
+        <v>13.131182000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1427.930000</v>
+        <v>1427.93</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.371000</v>
+        <v>-312.37099999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>47283.407609</v>
+        <v>47283.407609000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.134280</v>
+        <v>13.13428</v>
       </c>
       <c r="BA4" s="1">
-        <v>1447.250000</v>
+        <v>1447.25</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.344000</v>
+        <v>-364.34399999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>47294.003643</v>
+        <v>47294.003642999996</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.137223</v>
+        <v>13.137223000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1532.650000</v>
+        <v>1532.65</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.200000</v>
+        <v>-612.20000000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>47304.788652</v>
+        <v>47304.788652000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.140219</v>
       </c>
       <c r="BK4" s="1">
-        <v>1687.080000</v>
+        <v>1687.08</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1056.480000</v>
+        <v>-1056.48</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>47315.930782</v>
+        <v>47315.930782000003</v>
       </c>
       <c r="BO4" s="1">
         <v>13.143314</v>
       </c>
       <c r="BP4" s="1">
-        <v>1981.470000</v>
+        <v>1981.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1825.880000</v>
+        <v>-1825.88</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>47327.164548</v>
+        <v>47327.164548000001</v>
       </c>
       <c r="BT4" s="1">
         <v>13.146435</v>
       </c>
       <c r="BU4" s="1">
-        <v>2369.820000</v>
+        <v>2369.8200000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2716.490000</v>
+        <v>-2716.49</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>47337.804353</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.149390</v>
+        <v>13.14939</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2851.190000</v>
+        <v>2851.19</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3682.750000</v>
+        <v>-3682.75</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>47349.047170</v>
+        <v>47349.047169999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>13.152513</v>
+        <v>13.152513000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4278.760000</v>
+        <v>4278.76</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6014.590000</v>
+        <v>-6014.59</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>47176.683430</v>
+        <v>47176.683429999997</v>
       </c>
       <c r="B5" s="1">
-        <v>13.104634</v>
+        <v>13.104634000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.781000</v>
+        <v>-306.78100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>47187.094456</v>
+        <v>47187.094455999999</v>
       </c>
       <c r="G5" s="1">
         <v>13.107526</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.350000</v>
+        <v>1270.3499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.557000</v>
+        <v>-265.55700000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>47197.910715</v>
+        <v>47197.910714999998</v>
       </c>
       <c r="L5" s="1">
         <v>13.110531</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.410000</v>
+        <v>1305.4100000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.015000</v>
+        <v>-203.01499999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>47208.443788</v>
+        <v>47208.443787999997</v>
       </c>
       <c r="Q5" s="1">
         <v>13.113457</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.210000</v>
+        <v>1317.21</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.104000</v>
+        <v>-185.10400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>47218.996639</v>
+        <v>47218.996638999997</v>
       </c>
       <c r="V5" s="1">
-        <v>13.116388</v>
+        <v>13.116388000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.280000</v>
+        <v>1330.28</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.588000</v>
+        <v>-171.58799999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>47229.719151</v>
+        <v>47229.719150999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.119366</v>
+        <v>13.119365999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.960000</v>
+        <v>1347.96</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.315000</v>
+        <v>-169.315</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>47240.241809</v>
+        <v>47240.241808999999</v>
       </c>
       <c r="AF5" s="1">
         <v>13.122289</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.960000</v>
+        <v>1360.96</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.955000</v>
+        <v>-178.95500000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>47250.673140</v>
+        <v>47250.673139999999</v>
       </c>
       <c r="AK5" s="1">
         <v>13.125187</v>
       </c>
       <c r="AL5" s="1">
-        <v>1381.610000</v>
+        <v>1381.61</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.777000</v>
+        <v>-208.77699999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>47261.638197</v>
@@ -1372,527 +1788,527 @@
         <v>13.128233</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.499000</v>
+        <v>-252.499</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>47272.641453</v>
+        <v>47272.641452999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.131289</v>
+        <v>13.131289000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1427.920000</v>
+        <v>1427.92</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.346000</v>
+        <v>-312.346</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>47283.767713</v>
+        <v>47283.767713000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.134380</v>
+        <v>13.13438</v>
       </c>
       <c r="BA5" s="1">
-        <v>1447.310000</v>
+        <v>1447.31</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>47294.428219</v>
+        <v>47294.428219000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.137341</v>
+        <v>13.137340999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.137000</v>
+        <v>-612.13699999999994</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>47305.210748</v>
+        <v>47305.210747999998</v>
       </c>
       <c r="BJ5" s="1">
         <v>13.140336</v>
       </c>
       <c r="BK5" s="1">
-        <v>1687.030000</v>
+        <v>1687.03</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1056.540000</v>
+        <v>-1056.54</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>47316.321133</v>
+        <v>47316.321132999998</v>
       </c>
       <c r="BO5" s="1">
         <v>13.143423</v>
       </c>
       <c r="BP5" s="1">
-        <v>1981.330000</v>
+        <v>1981.33</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1825.880000</v>
+        <v>-1825.88</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>47327.578832</v>
+        <v>47327.578831999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>13.146550</v>
+        <v>13.14655</v>
       </c>
       <c r="BU5" s="1">
-        <v>2369.860000</v>
+        <v>2369.86</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2716.170000</v>
+        <v>-2716.17</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>47338.259185</v>
+        <v>47338.259185000003</v>
       </c>
       <c r="BY5" s="1">
         <v>13.149516</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2851.020000</v>
+        <v>2851.02</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3683.200000</v>
+        <v>-3683.2</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>47349.567009</v>
+        <v>47349.567008999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.152658</v>
+        <v>13.152658000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4261.620000</v>
+        <v>4261.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6007.800000</v>
+        <v>-6007.8</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>47177.028233</v>
+        <v>47177.028232999997</v>
       </c>
       <c r="B6" s="1">
-        <v>13.104730</v>
+        <v>13.10473</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.490000</v>
+        <v>1244.49</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.741000</v>
+        <v>-306.74099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>47187.441160</v>
+        <v>47187.441160000002</v>
       </c>
       <c r="G6" s="1">
         <v>13.107623</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.350000</v>
+        <v>1270.3499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-265.568000</v>
+        <v>-265.56799999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>47198.257418</v>
+        <v>47198.257418000001</v>
       </c>
       <c r="L6" s="1">
-        <v>13.110627</v>
+        <v>13.110626999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.140000</v>
+        <v>1305.1400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.092000</v>
+        <v>-203.09200000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>47209.102974</v>
+        <v>47209.102974000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.113640</v>
+        <v>13.11364</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.240000</v>
+        <v>1317.24</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.184000</v>
+        <v>-185.184</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>47219.658317</v>
+        <v>47219.658317000001</v>
       </c>
       <c r="V6" s="1">
         <v>13.116572</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.530000</v>
+        <v>1330.53</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.636000</v>
+        <v>-171.636</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>47230.098592</v>
+        <v>47230.098592000002</v>
       </c>
       <c r="AA6" s="1">
         <v>13.119472</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.870000</v>
+        <v>1347.87</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.233000</v>
+        <v>-169.233</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>47240.584051</v>
+        <v>47240.584050999998</v>
       </c>
       <c r="AF6" s="1">
         <v>13.122384</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.880000</v>
+        <v>1360.88</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.963000</v>
+        <v>-178.96299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>47251.022353</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.125284</v>
+        <v>13.125284000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1381.610000</v>
+        <v>1381.61</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.749000</v>
+        <v>-208.749</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>47261.996309</v>
+        <v>47261.996309000002</v>
       </c>
       <c r="AP6" s="1">
         <v>13.128332</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1403.350000</v>
+        <v>1403.35</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.471000</v>
+        <v>-252.471</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>47273.201926</v>
+        <v>47273.201926000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.131445</v>
+        <v>13.131444999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1427.940000</v>
+        <v>1427.94</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.351000</v>
+        <v>-312.351</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>47284.180908</v>
+        <v>47284.180908000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>13.134495</v>
+        <v>13.134494999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1447.300000</v>
+        <v>1447.3</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.330000</v>
+        <v>-364.33</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>47294.722874</v>
+        <v>47294.722873999999</v>
       </c>
       <c r="BE6" s="1">
         <v>13.137423</v>
       </c>
       <c r="BF6" s="1">
-        <v>1532.650000</v>
+        <v>1532.65</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.172000</v>
+        <v>-612.17200000000003</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>47305.568377</v>
+        <v>47305.568377000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.140436</v>
+        <v>13.140435999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1687.050000</v>
+        <v>1687.05</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1056.500000</v>
+        <v>-1056.5</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>47316.719452</v>
+        <v>47316.719451999998</v>
       </c>
       <c r="BO6" s="1">
         <v>13.143533</v>
       </c>
       <c r="BP6" s="1">
-        <v>1981.330000</v>
+        <v>1981.33</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1826.030000</v>
+        <v>-1826.03</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>47328.007405</v>
+        <v>47328.007404999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>13.146669</v>
+        <v>13.146668999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2370.280000</v>
+        <v>2370.2800000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2715.990000</v>
+        <v>-2715.99</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>47338.708560</v>
+        <v>47338.708559999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>13.149641</v>
+        <v>13.149641000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2851.600000</v>
+        <v>2851.6</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3682.640000</v>
+        <v>-3682.64</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>47350.083810</v>
+        <v>47350.083809999996</v>
       </c>
       <c r="CD6" s="1">
         <v>13.152801</v>
       </c>
       <c r="CE6" s="1">
-        <v>4268.920000</v>
+        <v>4268.92</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6007.830000</v>
+        <v>-6007.83</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>47177.377334</v>
+        <v>47177.377333999997</v>
       </c>
       <c r="B7" s="1">
         <v>13.104827</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.948000</v>
+        <v>-306.94799999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>47187.783899</v>
+        <v>47187.783899000002</v>
       </c>
       <c r="G7" s="1">
         <v>13.107718</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.550000</v>
+        <v>1269.55</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.953000</v>
+        <v>-265.95299999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>47198.914157</v>
+        <v>47198.914156999999</v>
       </c>
       <c r="L7" s="1">
         <v>13.110809</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.310000</v>
+        <v>1305.31</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.179000</v>
+        <v>-203.179</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>47209.490314</v>
+        <v>47209.490314000002</v>
       </c>
       <c r="Q7" s="1">
         <v>13.113747</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.170000</v>
+        <v>1317.17</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.157000</v>
+        <v>-185.15700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>47220.031292</v>
       </c>
       <c r="V7" s="1">
-        <v>13.116675</v>
+        <v>13.116675000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.530000</v>
+        <v>1330.53</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.569000</v>
+        <v>-171.56899999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>47230.446299</v>
+        <v>47230.446299000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.119568</v>
+        <v>13.119567999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.870000</v>
+        <v>1347.87</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.231000</v>
+        <v>-169.23099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>47240.929261</v>
+        <v>47240.929260999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.122480</v>
+        <v>13.122479999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.890000</v>
+        <v>1360.89</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.940000</v>
+        <v>-178.94</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>47251.371381</v>
+        <v>47251.371380999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.125381</v>
+        <v>13.125381000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1381.640000</v>
+        <v>1381.64</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.735000</v>
+        <v>-208.73500000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>47262.420886</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.128450</v>
+        <v>13.128450000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1403.290000</v>
+        <v>1403.29</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.486000</v>
+        <v>-252.48599999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>47273.372551</v>
@@ -1901,285 +2317,285 @@
         <v>13.131492</v>
       </c>
       <c r="AV7" s="1">
-        <v>1427.940000</v>
+        <v>1427.94</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.313000</v>
+        <v>-312.31299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>47284.482477</v>
+        <v>47284.482476999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>13.134578</v>
+        <v>13.134577999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1447.310000</v>
+        <v>1447.31</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.329000</v>
+        <v>-364.32900000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>47295.085914</v>
+        <v>47295.085914000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>13.137524</v>
+        <v>13.137524000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.174000</v>
+        <v>-612.17399999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>47305.942348</v>
+        <v>47305.942347999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.140540</v>
+        <v>13.14054</v>
       </c>
       <c r="BK7" s="1">
-        <v>1687.110000</v>
+        <v>1687.11</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1056.450000</v>
+        <v>-1056.45</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>47317.140029</v>
+        <v>47317.140029000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>13.143650</v>
+        <v>13.143649999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1981.320000</v>
+        <v>1981.32</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1826.060000</v>
+        <v>-1826.06</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>47328.436450</v>
+        <v>47328.436450000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>13.146788</v>
+        <v>13.146788000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2370.470000</v>
+        <v>2370.4699999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2715.680000</v>
+        <v>-2715.68</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>47339.163889</v>
+        <v>47339.163889000003</v>
       </c>
       <c r="BY7" s="1">
         <v>13.149768</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.830000</v>
+        <v>2850.83</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3683.260000</v>
+        <v>-3683.26</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>47350.631919</v>
+        <v>47350.631918999999</v>
       </c>
       <c r="CD7" s="1">
         <v>13.152953</v>
       </c>
       <c r="CE7" s="1">
-        <v>4275.920000</v>
+        <v>4275.92</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6010.990000</v>
+        <v>-6010.99</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>47178.023622</v>
+        <v>47178.023622000001</v>
       </c>
       <c r="B8" s="1">
-        <v>13.105007</v>
+        <v>13.105007000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.762000</v>
+        <v>-306.762</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>47188.446054</v>
       </c>
       <c r="G8" s="1">
-        <v>13.107902</v>
+        <v>13.107901999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.624000</v>
+        <v>-265.62400000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>47199.293064</v>
+        <v>47199.293063999998</v>
       </c>
       <c r="L8" s="1">
         <v>13.110915</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.490000</v>
+        <v>1305.49</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.144000</v>
+        <v>-203.14400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>47209.837019</v>
+        <v>47209.837018999999</v>
       </c>
       <c r="Q8" s="1">
         <v>13.113844</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.200000</v>
+        <v>1317.2</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.061000</v>
+        <v>-185.06100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>47220.379484</v>
+        <v>47220.379483999997</v>
       </c>
       <c r="V8" s="1">
-        <v>13.116772</v>
+        <v>13.116771999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.590000</v>
+        <v>1330.59</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.629000</v>
+        <v>-171.62899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>47230.797950</v>
+        <v>47230.79795</v>
       </c>
       <c r="AA8" s="1">
         <v>13.119666</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.900000</v>
+        <v>1347.9</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.236000</v>
+        <v>-169.23599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>47241.350338</v>
+        <v>47241.350337999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.122597</v>
+        <v>13.122597000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.960000</v>
+        <v>1360.96</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.960000</v>
+        <v>-178.96</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>47251.796580</v>
+        <v>47251.796580000002</v>
       </c>
       <c r="AK8" s="1">
         <v>13.125499</v>
       </c>
       <c r="AL8" s="1">
-        <v>1381.620000</v>
+        <v>1381.62</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.796000</v>
+        <v>-208.79599999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>47262.716004</v>
+        <v>47262.716004000002</v>
       </c>
       <c r="AP8" s="1">
         <v>13.128532</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1403.340000</v>
+        <v>1403.34</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.501000</v>
+        <v>-252.501</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>47273.737607</v>
+        <v>47273.737607000003</v>
       </c>
       <c r="AU8" s="1">
         <v>13.131594</v>
       </c>
       <c r="AV8" s="1">
-        <v>1427.930000</v>
+        <v>1427.93</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.345000</v>
+        <v>-312.34500000000003</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>47284.842074</v>
       </c>
       <c r="AZ8" s="1">
-        <v>13.134678</v>
+        <v>13.134677999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.320000</v>
+        <v>-364.32</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>47295.444054</v>
@@ -2188,180 +2604,180 @@
         <v>13.137623</v>
       </c>
       <c r="BF8" s="1">
-        <v>1532.660000</v>
+        <v>1532.66</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.144000</v>
+        <v>-612.14400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>47306.689851</v>
+        <v>47306.689851000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>13.140747</v>
+        <v>13.140746999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1686.970000</v>
+        <v>1686.97</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1056.360000</v>
+        <v>-1056.3599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>47317.955979</v>
+        <v>47317.955978999998</v>
       </c>
       <c r="BO8" s="1">
         <v>13.143877</v>
       </c>
       <c r="BP8" s="1">
-        <v>1981.300000</v>
+        <v>1981.3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1825.820000</v>
+        <v>-1825.82</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>47328.846639</v>
+        <v>47328.846639000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>13.146902</v>
+        <v>13.146902000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2370.680000</v>
+        <v>2370.6799999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2715.590000</v>
+        <v>-2715.59</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>47339.612302</v>
+        <v>47339.612302000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>13.149892</v>
+        <v>13.149891999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2851.040000</v>
+        <v>2851.04</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3683.680000</v>
+        <v>-3683.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>47351.162419</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.153101</v>
+        <v>13.153100999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4257.250000</v>
+        <v>4257.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6010.590000</v>
+        <v>-6010.59</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>47178.402068</v>
+        <v>47178.402068000003</v>
       </c>
       <c r="B9" s="1">
         <v>13.105112</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.380000</v>
+        <v>1244.3800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.754000</v>
+        <v>-306.75400000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>47188.824997</v>
+        <v>47188.824997000003</v>
       </c>
       <c r="G9" s="1">
-        <v>13.108007</v>
+        <v>13.108007000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.460000</v>
+        <v>1269.46</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.222000</v>
+        <v>-265.22199999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>47199.639767</v>
+        <v>47199.639767000001</v>
       </c>
       <c r="L9" s="1">
         <v>13.111011</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.330000</v>
+        <v>1305.33</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.881000</v>
+        <v>-202.881</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>47210.189178</v>
+        <v>47210.189178000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.113941</v>
+        <v>13.113941000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.280000</v>
+        <v>1317.28</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.077000</v>
+        <v>-185.077</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>47220.723985</v>
+        <v>47220.723984999997</v>
       </c>
       <c r="V9" s="1">
         <v>13.116868</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.490000</v>
+        <v>1330.49</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.646000</v>
+        <v>-171.64599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>47231.219055</v>
+        <v>47231.219055000001</v>
       </c>
       <c r="AA9" s="1">
         <v>13.119783</v>
       </c>
       <c r="AB9" s="1">
-        <v>1348.010000</v>
+        <v>1348.01</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.305000</v>
+        <v>-169.30500000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>47241.618704</v>
@@ -2370,255 +2786,255 @@
         <v>13.122672</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.960000</v>
+        <v>1360.96</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.930000</v>
+        <v>-178.93</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>47252.070373</v>
+        <v>47252.070373000002</v>
       </c>
       <c r="AK9" s="1">
         <v>13.125575</v>
       </c>
       <c r="AL9" s="1">
-        <v>1381.630000</v>
+        <v>1381.63</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.756000</v>
+        <v>-208.756</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>47263.077123</v>
+        <v>47263.077123000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.128633</v>
+        <v>13.128633000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1403.320000</v>
+        <v>1403.32</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.490000</v>
+        <v>-252.49</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>47274.100709</v>
+        <v>47274.100708999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.131695</v>
+        <v>13.131695000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1427.910000</v>
+        <v>1427.91</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.342000</v>
+        <v>-312.34199999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>47285.203127</v>
+        <v>47285.203127000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>13.134779</v>
       </c>
       <c r="BA9" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.303000</v>
+        <v>-364.303</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>47296.168183</v>
+        <v>47296.168183000002</v>
       </c>
       <c r="BE9" s="1">
         <v>13.137824</v>
       </c>
       <c r="BF9" s="1">
-        <v>1532.610000</v>
+        <v>1532.61</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.168000</v>
+        <v>-612.16800000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>47307.067306</v>
+        <v>47307.067305999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>13.140852</v>
+        <v>13.140852000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1686.950000</v>
+        <v>1686.95</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1056.480000</v>
+        <v>-1056.48</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>47318.374572</v>
+        <v>47318.374572000001</v>
       </c>
       <c r="BO9" s="1">
         <v>13.143993</v>
       </c>
       <c r="BP9" s="1">
-        <v>1981.120000</v>
+        <v>1981.12</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1826.020000</v>
+        <v>-1826.02</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>47329.279644</v>
+        <v>47329.279644000002</v>
       </c>
       <c r="BT9" s="1">
         <v>13.147022</v>
       </c>
       <c r="BU9" s="1">
-        <v>2370.750000</v>
+        <v>2370.75</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2715.130000</v>
+        <v>-2715.13</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>47340.384046</v>
+        <v>47340.384045999999</v>
       </c>
       <c r="BY9" s="1">
         <v>13.150107</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2851.350000</v>
+        <v>2851.35</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3682.600000</v>
+        <v>-3682.6</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>47351.990926</v>
+        <v>47351.990925999999</v>
       </c>
       <c r="CD9" s="1">
         <v>13.153331</v>
       </c>
       <c r="CE9" s="1">
-        <v>4277.210000</v>
+        <v>4277.21</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6010.760000</v>
+        <v>-6010.76</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>47178.752243</v>
+        <v>47178.752243000003</v>
       </c>
       <c r="B10" s="1">
         <v>13.105209</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.821000</v>
+        <v>-306.82100000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>47189.165253</v>
+        <v>47189.165252999999</v>
       </c>
       <c r="G10" s="1">
         <v>13.108101</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.890000</v>
+        <v>-264.89</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>47199.984488</v>
+        <v>47199.984488000002</v>
       </c>
       <c r="L10" s="1">
-        <v>13.111107</v>
+        <v>13.111107000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.420000</v>
+        <v>1305.42</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.261000</v>
+        <v>-203.261</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>47210.611310</v>
+        <v>47210.61131</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.114059</v>
+        <v>13.114058999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.260000</v>
+        <v>1317.26</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.112000</v>
+        <v>-185.11199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>47221.148811</v>
+        <v>47221.148810999999</v>
       </c>
       <c r="V10" s="1">
-        <v>13.116986</v>
+        <v>13.116986000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.530000</v>
+        <v>1330.53</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.601000</v>
+        <v>-171.601</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>47231.492882</v>
+        <v>47231.492881999999</v>
       </c>
       <c r="AA10" s="1">
         <v>13.119859</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.920000</v>
+        <v>1347.92</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.379000</v>
+        <v>-169.37899999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>47241.961444</v>
@@ -2627,330 +3043,330 @@
         <v>13.122767</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.960000</v>
+        <v>1360.96</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.011000</v>
+        <v>-179.011</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>47252.420082</v>
+        <v>47252.420081999997</v>
       </c>
       <c r="AK10" s="1">
         <v>13.125672</v>
       </c>
       <c r="AL10" s="1">
-        <v>1381.610000</v>
+        <v>1381.61</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.738000</v>
+        <v>-208.738</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>47263.438677</v>
+        <v>47263.438676999998</v>
       </c>
       <c r="AP10" s="1">
         <v>13.128733</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1403.320000</v>
+        <v>1403.32</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.494000</v>
+        <v>-252.494</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>47274.830788</v>
+        <v>47274.830787999999</v>
       </c>
       <c r="AU10" s="1">
         <v>13.131897</v>
       </c>
       <c r="AV10" s="1">
-        <v>1427.990000</v>
+        <v>1427.99</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.323000</v>
+        <v>-312.32299999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>47285.919878</v>
+        <v>47285.919878000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>13.134978</v>
       </c>
       <c r="BA10" s="1">
-        <v>1447.280000</v>
+        <v>1447.28</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.364000</v>
+        <v>-364.36399999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>47296.554599</v>
+        <v>47296.554599000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.137932</v>
+        <v>13.137931999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1532.660000</v>
+        <v>1532.66</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.166000</v>
+        <v>-612.16600000000005</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>47307.439800</v>
+        <v>47307.4398</v>
       </c>
       <c r="BJ10" s="1">
-        <v>13.140956</v>
+        <v>13.140955999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1687.030000</v>
+        <v>1687.03</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1056.420000</v>
+        <v>-1056.42</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>47318.770875</v>
+        <v>47318.770875000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>13.144103</v>
+        <v>13.144102999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1981.160000</v>
+        <v>1981.16</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1826.100000</v>
+        <v>-1826.1</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>47330.011708</v>
+        <v>47330.011707999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.147225</v>
+        <v>13.147225000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2370.850000</v>
+        <v>2370.85</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2714.690000</v>
+        <v>-2714.69</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>47340.515486</v>
+        <v>47340.515485999997</v>
       </c>
       <c r="BY10" s="1">
         <v>13.150143</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2851.280000</v>
+        <v>2851.28</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3682.690000</v>
+        <v>-3682.69</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>47352.222063</v>
+        <v>47352.222063000001</v>
       </c>
       <c r="CD10" s="1">
         <v>13.153395</v>
       </c>
       <c r="CE10" s="1">
-        <v>4278.450000</v>
+        <v>4278.45</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6014.570000</v>
+        <v>-6014.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>47179.092036</v>
+        <v>47179.092036000002</v>
       </c>
       <c r="B11" s="1">
-        <v>13.105303</v>
+        <v>13.105302999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.730000</v>
+        <v>1244.73</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.557000</v>
+        <v>-306.55700000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>47189.506503</v>
+        <v>47189.506502999997</v>
       </c>
       <c r="G11" s="1">
         <v>13.108196</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.180000</v>
+        <v>1269.18</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.976000</v>
+        <v>-263.976</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>47200.398182</v>
+        <v>47200.398181999997</v>
       </c>
       <c r="L11" s="1">
         <v>13.111222</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.380000</v>
+        <v>1305.3800000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.119000</v>
+        <v>-203.119</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>47210.889560</v>
+        <v>47210.889560000003</v>
       </c>
       <c r="Q11" s="1">
         <v>13.114136</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.290000</v>
+        <v>1317.29</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.131000</v>
+        <v>-185.131</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>47221.425051</v>
+        <v>47221.425050999998</v>
       </c>
       <c r="V11" s="1">
         <v>13.117063</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.610000</v>
+        <v>1330.61</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.398000</v>
+        <v>-171.398</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>47231.842559</v>
+        <v>47231.842558999997</v>
       </c>
       <c r="AA11" s="1">
         <v>13.119956</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.920000</v>
+        <v>1347.92</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.330000</v>
+        <v>-169.33</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>47242.306128</v>
+        <v>47242.306127999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.122863</v>
+        <v>13.122863000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.880000</v>
+        <v>1360.88</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.963000</v>
+        <v>-178.96299999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>47252.771217</v>
+        <v>47252.771217000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.125770</v>
+        <v>13.125769999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1381.620000</v>
+        <v>1381.62</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.758000</v>
+        <v>-208.75800000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>47264.163331</v>
+        <v>47264.163331000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.128934</v>
+        <v>13.128933999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1403.320000</v>
+        <v>1403.32</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.500000</v>
+        <v>-252.5</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>47275.223619</v>
+        <v>47275.223618999997</v>
       </c>
       <c r="AU11" s="1">
         <v>13.132007</v>
       </c>
       <c r="AV11" s="1">
-        <v>1427.930000</v>
+        <v>1427.93</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.340000</v>
+        <v>-312.33999999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>47286.277461</v>
+        <v>47286.277460999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.135077</v>
+        <v>13.135077000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1447.250000</v>
+        <v>1447.25</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.326000</v>
+        <v>-364.32600000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>47296.938509</v>
@@ -2959,165 +3375,165 @@
         <v>13.138038</v>
       </c>
       <c r="BF11" s="1">
-        <v>1532.640000</v>
+        <v>1532.64</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.183000</v>
+        <v>-612.18299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>47308.122760</v>
+        <v>47308.122759999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.141145</v>
       </c>
       <c r="BK11" s="1">
-        <v>1686.980000</v>
+        <v>1686.98</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1056.420000</v>
+        <v>-1056.42</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>47319.503465</v>
+        <v>47319.503465000002</v>
       </c>
       <c r="BO11" s="1">
         <v>13.144307</v>
       </c>
       <c r="BP11" s="1">
-        <v>1981.210000</v>
+        <v>1981.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1825.980000</v>
+        <v>-1825.98</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>47330.154556</v>
+        <v>47330.154556000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.147265</v>
+        <v>13.147265000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2370.830000</v>
+        <v>2370.83</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2714.480000</v>
+        <v>-2714.48</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>47340.936588</v>
+        <v>47340.936587999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.150260</v>
+        <v>13.150259999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.710000</v>
+        <v>2850.71</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3682.690000</v>
+        <v>-3682.69</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>47352.742862</v>
+        <v>47352.742861999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.153540</v>
+        <v>13.15354</v>
       </c>
       <c r="CE11" s="1">
-        <v>4262.950000</v>
+        <v>4262.95</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6006.140000</v>
+        <v>-6006.14</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>47179.519058</v>
+        <v>47179.519057999998</v>
       </c>
       <c r="B12" s="1">
-        <v>13.105422</v>
+        <v>13.105422000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.390000</v>
+        <v>1244.3900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.655000</v>
+        <v>-306.65499999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>47190.199413</v>
+        <v>47190.199413000002</v>
       </c>
       <c r="G12" s="1">
-        <v>13.108389</v>
+        <v>13.108389000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.540000</v>
+        <v>1269.54</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.162000</v>
+        <v>-265.16199999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>47200.688346</v>
+        <v>47200.688346000003</v>
       </c>
       <c r="L12" s="1">
         <v>13.111302</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.180000</v>
+        <v>-203.18</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>47211.238713</v>
+        <v>47211.238712999999</v>
       </c>
       <c r="Q12" s="1">
         <v>13.114233</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.260000</v>
+        <v>1317.26</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.147000</v>
+        <v>-185.14699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>47221.757370</v>
+        <v>47221.757369999999</v>
       </c>
       <c r="V12" s="1">
         <v>13.117155</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.620000</v>
+        <v>1330.62</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.424000</v>
+        <v>-171.42400000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>47232.192702</v>
@@ -3126,58 +3542,58 @@
         <v>13.120054</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.910000</v>
+        <v>1347.91</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.213000</v>
+        <v>-169.21299999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>47242.993584</v>
+        <v>47242.993584000003</v>
       </c>
       <c r="AF12" s="1">
         <v>13.123054</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.870000</v>
+        <v>1360.87</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.961000</v>
+        <v>-178.96100000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>47253.462144</v>
+        <v>47253.462143999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.125962</v>
+        <v>13.125961999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1381.590000</v>
+        <v>1381.59</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.745000</v>
+        <v>-208.745</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>47264.545249</v>
+        <v>47264.545249000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.129040</v>
+        <v>13.12904</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.460000</v>
+        <v>-252.46</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>47275.585885</v>
@@ -3186,28 +3602,28 @@
         <v>13.132107</v>
       </c>
       <c r="AV12" s="1">
-        <v>1427.920000</v>
+        <v>1427.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.314000</v>
+        <v>-312.31400000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>47286.636100</v>
+        <v>47286.636100000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>13.135177</v>
+        <v>13.135177000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.333000</v>
+        <v>-364.33300000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>47297.612039</v>
@@ -3216,452 +3632,452 @@
         <v>13.138226</v>
       </c>
       <c r="BF12" s="1">
-        <v>1532.630000</v>
+        <v>1532.63</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.171000</v>
+        <v>-612.17100000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>47308.565689</v>
+        <v>47308.565689000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.141268</v>
       </c>
       <c r="BK12" s="1">
-        <v>1687.000000</v>
+        <v>1687</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1056.410000</v>
+        <v>-1056.4100000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>47320.008429</v>
+        <v>47320.008429000001</v>
       </c>
       <c r="BO12" s="1">
         <v>13.144447</v>
       </c>
       <c r="BP12" s="1">
-        <v>1981.180000</v>
+        <v>1981.18</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1825.800000</v>
+        <v>-1825.8</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>47330.565244</v>
+        <v>47330.565243999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>13.147379</v>
+        <v>13.147379000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2371.060000</v>
+        <v>2371.06</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2713.970000</v>
+        <v>-2713.97</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>47341.359708</v>
+        <v>47341.359708000004</v>
       </c>
       <c r="BY12" s="1">
         <v>13.150378</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2850.810000</v>
+        <v>2850.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3683.090000</v>
+        <v>-3683.09</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>47353.257708</v>
+        <v>47353.257707999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.153683</v>
+        <v>13.153682999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4268.510000</v>
+        <v>4268.51</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6007.570000</v>
+        <v>-6007.57</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>47179.789379</v>
+        <v>47179.789379000002</v>
       </c>
       <c r="B13" s="1">
         <v>13.105497</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.470000</v>
+        <v>1244.47</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.693000</v>
+        <v>-306.69299999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>47190.539699</v>
+        <v>47190.539699000001</v>
       </c>
       <c r="G13" s="1">
         <v>13.108483</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.390000</v>
+        <v>1268.3900000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.688000</v>
+        <v>-265.68799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>47201.035511</v>
+        <v>47201.035511000002</v>
       </c>
       <c r="L13" s="1">
         <v>13.111399</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.160000</v>
+        <v>1305.1600000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.055000</v>
+        <v>-203.05500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>47211.585944</v>
+        <v>47211.585943999999</v>
       </c>
       <c r="Q13" s="1">
         <v>13.114329</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.220000</v>
+        <v>1317.22</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.116000</v>
+        <v>-185.11600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>47222.110559</v>
+        <v>47222.110559000001</v>
       </c>
       <c r="V13" s="1">
         <v>13.117253</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.360000</v>
+        <v>1330.36</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.384000</v>
+        <v>-171.38399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>47232.889669</v>
+        <v>47232.889668999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.120247</v>
+        <v>13.120247000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.830000</v>
+        <v>1347.83</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.169000</v>
+        <v>-169.16900000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>47243.337805</v>
+        <v>47243.337805000003</v>
       </c>
       <c r="AF13" s="1">
         <v>13.123149</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.920000</v>
+        <v>1360.92</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.961000</v>
+        <v>-178.96100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>47253.814340</v>
+        <v>47253.814339999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.126060</v>
+        <v>13.126060000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1381.600000</v>
+        <v>1381.6</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.739000</v>
+        <v>-208.739</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>47264.903442</v>
+        <v>47264.903442000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>13.129140</v>
+        <v>13.12914</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1403.330000</v>
+        <v>1403.33</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.461000</v>
+        <v>-252.46100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>47276.262242</v>
+        <v>47276.262241999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>13.132295</v>
+        <v>13.132294999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1427.910000</v>
+        <v>1427.91</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.352000</v>
+        <v>-312.35199999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>47287.310131</v>
+        <v>47287.310130999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>13.135364</v>
+        <v>13.135363999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.323000</v>
+        <v>-364.32299999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>47298.022727</v>
+        <v>47298.022727000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.138340</v>
+        <v>13.138339999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1532.640000</v>
+        <v>1532.64</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.146000</v>
+        <v>-612.14599999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>47308.941656</v>
+        <v>47308.941656000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>13.141373</v>
       </c>
       <c r="BK13" s="1">
-        <v>1687.010000</v>
+        <v>1687.01</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1056.350000</v>
+        <v>-1056.3499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>47320.429036</v>
+        <v>47320.429036000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.144564</v>
+        <v>13.144564000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1981.230000</v>
+        <v>1981.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1825.820000</v>
+        <v>-1825.82</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>47330.991802</v>
+        <v>47330.991801999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.147498</v>
+        <v>13.147498000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2370.810000</v>
+        <v>2370.81</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2713.720000</v>
+        <v>-2713.72</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>47341.815005</v>
+        <v>47341.815004999997</v>
       </c>
       <c r="BY13" s="1">
         <v>13.150504</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2851.170000</v>
+        <v>2851.17</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3683.190000</v>
+        <v>-3683.19</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>47353.812731</v>
+        <v>47353.812730999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>13.153837</v>
+        <v>13.153836999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4276.850000</v>
+        <v>4276.8500000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6011.640000</v>
+        <v>-6011.64</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>47180.133601</v>
+        <v>47180.133601000001</v>
       </c>
       <c r="B14" s="1">
-        <v>13.105593</v>
+        <v>13.105593000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.260000</v>
+        <v>1244.26</v>
       </c>
       <c r="D14" s="1">
-        <v>-307.028000</v>
+        <v>-307.02800000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>47190.890339</v>
+        <v>47190.890338999998</v>
       </c>
       <c r="G14" s="1">
-        <v>13.108581</v>
+        <v>13.108580999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.590000</v>
+        <v>1268.5899999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.003000</v>
+        <v>-266.00299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>47201.380229</v>
+        <v>47201.380229000002</v>
       </c>
       <c r="L14" s="1">
         <v>13.111495</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.380000</v>
+        <v>1305.3800000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.340000</v>
+        <v>-203.34</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>47212.281830</v>
+        <v>47212.28183</v>
       </c>
       <c r="Q14" s="1">
         <v>13.114523</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.047000</v>
+        <v>-185.047</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>47222.812361</v>
+        <v>47222.812360999997</v>
       </c>
       <c r="V14" s="1">
         <v>13.117448</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.630000</v>
+        <v>1330.63</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.534000</v>
+        <v>-171.53399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>47233.238763</v>
+        <v>47233.238763000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.120344</v>
+        <v>13.120343999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.920000</v>
+        <v>1347.92</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.287000</v>
+        <v>-169.28700000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>47243.681037</v>
+        <v>47243.681037000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.123245</v>
+        <v>13.123245000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.910000</v>
+        <v>1360.91</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.958000</v>
+        <v>-178.958</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>47254.162031</v>
@@ -3670,88 +4086,88 @@
         <v>13.126156</v>
       </c>
       <c r="AL14" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.733000</v>
+        <v>-208.733</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>47265.566017</v>
+        <v>47265.566016999997</v>
       </c>
       <c r="AP14" s="1">
         <v>13.129324</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.477000</v>
+        <v>-252.477</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>47276.710657</v>
+        <v>47276.710657000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.132420</v>
+        <v>13.13242</v>
       </c>
       <c r="AV14" s="1">
-        <v>1427.950000</v>
+        <v>1427.95</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.331000</v>
+        <v>-312.33100000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>47287.711892</v>
+        <v>47287.711891999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>13.135476</v>
+        <v>13.135476000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1447.260000</v>
+        <v>1447.26</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.299000</v>
+        <v>-364.29899999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>47298.412122</v>
+        <v>47298.412122000002</v>
       </c>
       <c r="BE14" s="1">
         <v>13.138448</v>
       </c>
       <c r="BF14" s="1">
-        <v>1532.630000</v>
+        <v>1532.63</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.160000</v>
+        <v>-612.16</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>47309.307207</v>
+        <v>47309.307206999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.141474</v>
+        <v>13.141474000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1686.990000</v>
+        <v>1686.99</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1056.380000</v>
+        <v>-1056.3800000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>47320.826791</v>
@@ -3760,225 +4176,225 @@
         <v>13.144674</v>
       </c>
       <c r="BP14" s="1">
-        <v>1981.110000</v>
+        <v>1981.11</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1825.760000</v>
+        <v>-1825.76</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>47331.419355</v>
+        <v>47331.419354999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.147616</v>
+        <v>13.147615999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2370.720000</v>
+        <v>2370.7199999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2713.370000</v>
+        <v>-2713.37</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>47342.232635</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.150620</v>
+        <v>13.15062</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2851.190000</v>
+        <v>2851.19</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3682.230000</v>
+        <v>-3682.23</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>47354.340475</v>
+        <v>47354.340474999997</v>
       </c>
       <c r="CD14" s="1">
         <v>13.153983</v>
       </c>
       <c r="CE14" s="1">
-        <v>4259.990000</v>
+        <v>4259.99</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6007.140000</v>
+        <v>-6007.14</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>47180.475873</v>
+        <v>47180.475873000003</v>
       </c>
       <c r="B15" s="1">
-        <v>13.105688</v>
+        <v>13.105688000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.498000</v>
+        <v>-306.49799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>47191.576680</v>
+        <v>47191.576679999998</v>
       </c>
       <c r="G15" s="1">
-        <v>13.108771</v>
+        <v>13.108771000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.616000</v>
+        <v>-264.61599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>47202.072180</v>
+        <v>47202.072180000003</v>
       </c>
       <c r="L15" s="1">
         <v>13.111687</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.140000</v>
+        <v>1305.1400000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.440000</v>
+        <v>-203.44</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>47212.631511</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.114620</v>
+        <v>13.11462</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.290000</v>
+        <v>1317.29</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.060000</v>
+        <v>-185.06</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>47223.139721</v>
       </c>
       <c r="V15" s="1">
-        <v>13.117539</v>
+        <v>13.117539000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.410000</v>
+        <v>1330.41</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.629000</v>
+        <v>-171.62899999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>47233.586954</v>
+        <v>47233.586953999999</v>
       </c>
       <c r="AA15" s="1">
         <v>13.120441</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.870000</v>
+        <v>1347.87</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.332000</v>
+        <v>-169.33199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>47244.336287</v>
+        <v>47244.336286999998</v>
       </c>
       <c r="AF15" s="1">
         <v>13.123427</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.870000</v>
+        <v>1360.87</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.916000</v>
+        <v>-178.916</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>47254.840564</v>
+        <v>47254.840563999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>13.126345</v>
+        <v>13.126345000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1381.620000</v>
+        <v>1381.62</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.778000</v>
+        <v>-208.77799999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>47265.984146</v>
+        <v>47265.984146000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.129440</v>
+        <v>13.129440000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.505000</v>
+        <v>-252.505</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>47277.077170</v>
+        <v>47277.077169999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.132521</v>
+        <v>13.132521000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1427.950000</v>
+        <v>1427.95</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.320000</v>
+        <v>-312.32</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>47288.100754</v>
+        <v>47288.100753999999</v>
       </c>
       <c r="AZ15" s="1">
         <v>13.135584</v>
       </c>
       <c r="BA15" s="1">
-        <v>1447.280000</v>
+        <v>1447.28</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.312000</v>
+        <v>-364.31200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>47298.773705</v>
@@ -3987,799 +4403,799 @@
         <v>13.138548</v>
       </c>
       <c r="BF15" s="1">
-        <v>1532.550000</v>
+        <v>1532.55</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.161000</v>
+        <v>-612.16099999999994</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>47309.739718</v>
+        <v>47309.739717999997</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.141594</v>
       </c>
       <c r="BK15" s="1">
-        <v>1687.030000</v>
+        <v>1687.03</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1056.370000</v>
+        <v>-1056.3699999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>47321.254343</v>
+        <v>47321.254343000001</v>
       </c>
       <c r="BO15" s="1">
         <v>13.144793</v>
       </c>
       <c r="BP15" s="1">
-        <v>1981.130000</v>
+        <v>1981.13</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1825.780000</v>
+        <v>-1825.78</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>47331.821114</v>
+        <v>47331.821113999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.147728</v>
+        <v>13.147728000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2370.850000</v>
+        <v>2370.85</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2712.840000</v>
+        <v>-2712.84</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>47342.680027</v>
+        <v>47342.680027000002</v>
       </c>
       <c r="BY15" s="1">
         <v>13.150744</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.440000</v>
+        <v>2850.44</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3682.600000</v>
+        <v>-3682.6</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>47354.859290</v>
+        <v>47354.85929</v>
       </c>
       <c r="CD15" s="1">
         <v>13.154128</v>
       </c>
       <c r="CE15" s="1">
-        <v>4257.830000</v>
+        <v>4257.83</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6024.690000</v>
+        <v>-6024.69</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>47181.160320</v>
+        <v>47181.160320000003</v>
       </c>
       <c r="B16" s="1">
-        <v>13.105878</v>
+        <v>13.105878000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.500000</v>
+        <v>1244.5</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.754000</v>
+        <v>-306.75400000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>47191.921558</v>
+        <v>47191.921558000002</v>
       </c>
       <c r="G16" s="1">
         <v>13.108867</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.600000</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.552000</v>
+        <v>-264.55200000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>47202.418853</v>
+        <v>47202.418853000003</v>
       </c>
       <c r="L16" s="1">
-        <v>13.111783</v>
+        <v>13.111783000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.323000</v>
+        <v>-203.32300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>47212.984133</v>
+        <v>47212.984132999998</v>
       </c>
       <c r="Q16" s="1">
         <v>13.114718</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.320000</v>
+        <v>1317.32</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.079000</v>
+        <v>-185.07900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>47223.790479</v>
+        <v>47223.790479000003</v>
       </c>
       <c r="V16" s="1">
-        <v>13.117720</v>
+        <v>13.11772</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.410000</v>
+        <v>1330.41</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.540000</v>
+        <v>-171.54</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>47234.241179</v>
+        <v>47234.241178999997</v>
       </c>
       <c r="AA16" s="1">
         <v>13.120623</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.910000</v>
+        <v>1347.91</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.255000</v>
+        <v>-169.255</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>47244.710268</v>
+        <v>47244.710268000003</v>
       </c>
       <c r="AF16" s="1">
         <v>13.123531</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.930000</v>
+        <v>1360.93</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.959000</v>
+        <v>-178.959</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>47255.209055</v>
+        <v>47255.209054999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.126447</v>
+        <v>13.126447000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1381.580000</v>
+        <v>1381.58</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.713000</v>
+        <v>-208.71299999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>47266.368047</v>
+        <v>47266.368047000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.129547</v>
+        <v>13.129547000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.500000</v>
+        <v>-252.5</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>47277.441265</v>
+        <v>47277.441265000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>13.132623</v>
+        <v>13.132623000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1427.950000</v>
+        <v>1427.95</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.311000</v>
+        <v>-312.31099999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>47288.460888</v>
+        <v>47288.460888000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.135684</v>
+        <v>13.135683999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1447.260000</v>
+        <v>1447.26</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.304000</v>
+        <v>-364.30399999999997</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>47299.190842</v>
+        <v>47299.190842000004</v>
       </c>
       <c r="BE16" s="1">
         <v>13.138664</v>
       </c>
       <c r="BF16" s="1">
-        <v>1532.590000</v>
+        <v>1532.59</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.179000</v>
+        <v>-612.17899999999997</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>47310.093863</v>
+        <v>47310.093863000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>13.141693</v>
       </c>
       <c r="BK16" s="1">
-        <v>1686.920000</v>
+        <v>1686.92</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1056.330000</v>
+        <v>-1056.33</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>47321.645686</v>
+        <v>47321.645686000003</v>
       </c>
       <c r="BO16" s="1">
         <v>13.144902</v>
       </c>
       <c r="BP16" s="1">
-        <v>1981.160000</v>
+        <v>1981.16</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1825.670000</v>
+        <v>-1825.67</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>47332.236264</v>
+        <v>47332.236263999999</v>
       </c>
       <c r="BT16" s="1">
         <v>13.147843</v>
       </c>
       <c r="BU16" s="1">
-        <v>2370.600000</v>
+        <v>2370.6</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2712.660000</v>
+        <v>-2712.66</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>47343.100138</v>
+        <v>47343.100138000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.150861</v>
+        <v>13.150861000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2850.980000</v>
+        <v>2850.98</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3682.880000</v>
+        <v>-3682.88</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>47355.381609</v>
+        <v>47355.381608999996</v>
       </c>
       <c r="CD16" s="1">
         <v>13.154273</v>
       </c>
       <c r="CE16" s="1">
-        <v>4275.530000</v>
+        <v>4275.53</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6022.530000</v>
+        <v>-6022.53</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>47181.502064</v>
       </c>
       <c r="B17" s="1">
-        <v>13.105973</v>
+        <v>13.105973000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.307000</v>
+        <v>-306.30700000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>47192.267761</v>
+        <v>47192.267761000003</v>
       </c>
       <c r="G17" s="1">
-        <v>13.108963</v>
+        <v>13.108962999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.383000</v>
+        <v>-265.38299999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>47202.768036</v>
+        <v>47202.768036000001</v>
       </c>
       <c r="L17" s="1">
-        <v>13.111880</v>
+        <v>13.111879999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.190000</v>
+        <v>1305.19</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.148000</v>
+        <v>-203.148</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>47213.648278</v>
+        <v>47213.648278000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.114902</v>
+        <v>13.114902000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.200000</v>
+        <v>1317.2</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.235000</v>
+        <v>-185.23500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>47224.167928</v>
+        <v>47224.167928000003</v>
       </c>
       <c r="V17" s="1">
-        <v>13.117824</v>
+        <v>13.117824000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.560000</v>
+        <v>1330.56</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.544000</v>
+        <v>-171.54400000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>47234.630074</v>
+        <v>47234.630074000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.120731</v>
+        <v>13.120730999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.970000</v>
+        <v>1347.97</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.338000</v>
+        <v>-169.33799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>47245.053965</v>
+        <v>47245.053964999999</v>
       </c>
       <c r="AF17" s="1">
         <v>13.123626</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.850000</v>
+        <v>1360.85</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.974000</v>
+        <v>-178.97399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>47255.554767</v>
+        <v>47255.554767000001</v>
       </c>
       <c r="AK17" s="1">
         <v>13.126543</v>
       </c>
       <c r="AL17" s="1">
-        <v>1381.590000</v>
+        <v>1381.59</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.715000</v>
+        <v>-208.715</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>47266.726656</v>
+        <v>47266.726655999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.129646</v>
+        <v>13.129645999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.466000</v>
+        <v>-252.46600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>47277.859857</v>
+        <v>47277.859857000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.132739</v>
+        <v>13.132739000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1427.920000</v>
+        <v>1427.92</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.323000</v>
+        <v>-312.32299999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>47288.887450</v>
+        <v>47288.887450000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>13.135802</v>
       </c>
       <c r="BA17" s="1">
-        <v>1447.280000</v>
+        <v>1447.28</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.306000</v>
+        <v>-364.30599999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>47299.496341</v>
+        <v>47299.496340999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>13.138749</v>
+        <v>13.138749000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1532.630000</v>
+        <v>1532.63</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.118000</v>
+        <v>-612.11800000000005</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>47310.470821</v>
+        <v>47310.470821000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>13.141797</v>
       </c>
       <c r="BK17" s="1">
-        <v>1686.980000</v>
+        <v>1686.98</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1056.390000</v>
+        <v>-1056.3900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>47322.066299</v>
+        <v>47322.066298999998</v>
       </c>
       <c r="BO17" s="1">
         <v>13.145018</v>
       </c>
       <c r="BP17" s="1">
-        <v>1981.200000</v>
+        <v>1981.2</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1825.750000</v>
+        <v>-1825.75</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>47332.648477</v>
+        <v>47332.648477000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>13.147958</v>
+        <v>13.147957999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2370.350000</v>
+        <v>2370.35</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2712.250000</v>
+        <v>-2712.25</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>47343.527721</v>
+        <v>47343.527720999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>13.150980</v>
+        <v>13.150980000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2850.510000</v>
+        <v>2850.51</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3682.740000</v>
+        <v>-3682.74</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>47355.895931</v>
+        <v>47355.895930999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.154416</v>
+        <v>13.154415999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4273.510000</v>
+        <v>4273.51</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6027.260000</v>
+        <v>-6027.26</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>47181.844800</v>
+        <v>47181.844799999999</v>
       </c>
       <c r="B18" s="1">
         <v>13.106068</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.470000</v>
+        <v>1244.47</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.617000</v>
+        <v>-306.61700000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>47192.921493</v>
+        <v>47192.921493000002</v>
       </c>
       <c r="G18" s="1">
         <v>13.109145</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.520000</v>
+        <v>1269.52</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.785000</v>
+        <v>-265.78500000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>47203.421762</v>
+        <v>47203.421761999998</v>
       </c>
       <c r="L18" s="1">
         <v>13.112062</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.160000</v>
+        <v>1305.1600000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.389000</v>
+        <v>-203.38900000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>47214.024744</v>
+        <v>47214.024744000002</v>
       </c>
       <c r="Q18" s="1">
         <v>13.115007</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.180000</v>
+        <v>1317.18</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.156000</v>
+        <v>-185.15600000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>47224.515128</v>
+        <v>47224.515127999999</v>
       </c>
       <c r="V18" s="1">
-        <v>13.117921</v>
+        <v>13.117921000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.460000</v>
+        <v>1330.46</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.655000</v>
+        <v>-171.655</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>47234.980218</v>
+        <v>47234.980217999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.120828</v>
+        <v>13.120827999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.980000</v>
+        <v>1347.98</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.349000</v>
+        <v>-169.34899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>47245.402652</v>
+        <v>47245.402651999997</v>
       </c>
       <c r="AF18" s="1">
         <v>13.123723</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.960000</v>
+        <v>1360.96</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.872000</v>
+        <v>-178.87200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>47255.904300</v>
+        <v>47255.904300000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>13.126640</v>
+        <v>13.12664</v>
       </c>
       <c r="AL18" s="1">
-        <v>1381.630000</v>
+        <v>1381.63</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.735000</v>
+        <v>-208.73500000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>47267.136614</v>
+        <v>47267.136614000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.129760</v>
+        <v>13.129759999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.512000</v>
+        <v>-252.512</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>47278.171380</v>
+        <v>47278.17138</v>
       </c>
       <c r="AU18" s="1">
         <v>13.132825</v>
       </c>
       <c r="AV18" s="1">
-        <v>1427.900000</v>
+        <v>1427.9</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.281000</v>
+        <v>-312.28100000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>47289.176577</v>
+        <v>47289.176576999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>13.135882</v>
+        <v>13.135882000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1447.310000</v>
+        <v>1447.31</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.339000</v>
+        <v>-364.339</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>47299.858418</v>
+        <v>47299.858418000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>13.138850</v>
+        <v>13.13885</v>
       </c>
       <c r="BF18" s="1">
-        <v>1532.580000</v>
+        <v>1532.58</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.146000</v>
+        <v>-612.14599999999996</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>47310.842360</v>
+        <v>47310.842360000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>13.141901</v>
+        <v>13.141901000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1686.960000</v>
+        <v>1686.96</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1056.240000</v>
+        <v>-1056.24</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>47322.655045</v>
@@ -4788,527 +5204,527 @@
         <v>13.145182</v>
       </c>
       <c r="BP18" s="1">
-        <v>1981.180000</v>
+        <v>1981.18</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1825.770000</v>
+        <v>-1825.77</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>47333.069048</v>
+        <v>47333.069047999998</v>
       </c>
       <c r="BT18" s="1">
         <v>13.148075</v>
       </c>
       <c r="BU18" s="1">
-        <v>2370.020000</v>
+        <v>2370.02</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2711.770000</v>
+        <v>-2711.77</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>47343.970654</v>
+        <v>47343.970653999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>13.151103</v>
+        <v>13.151103000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2851.440000</v>
+        <v>2851.44</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3682.140000</v>
+        <v>-3682.14</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>47356.445992</v>
+        <v>47356.445992000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.154568</v>
+        <v>13.154567999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4258.340000</v>
+        <v>4258.34</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6023.580000</v>
+        <v>-6023.58</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>47182.490127</v>
+        <v>47182.490126999997</v>
       </c>
       <c r="B19" s="1">
         <v>13.106247</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.100000</v>
+        <v>1244.0999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.498000</v>
+        <v>-306.49799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>47193.300928</v>
+        <v>47193.300927999997</v>
       </c>
       <c r="G19" s="1">
-        <v>13.109250</v>
+        <v>13.109249999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.517000</v>
+        <v>-265.517</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>47203.800705</v>
+        <v>47203.800705000001</v>
       </c>
       <c r="L19" s="1">
-        <v>13.112167</v>
+        <v>13.112166999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.370000</v>
+        <v>1305.3699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.971000</v>
+        <v>-202.971</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>47214.377926</v>
+        <v>47214.377926000001</v>
       </c>
       <c r="Q19" s="1">
         <v>13.115105</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.230000</v>
+        <v>1317.23</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.071000</v>
+        <v>-185.071</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>47224.857404</v>
+        <v>47224.857404000002</v>
       </c>
       <c r="V19" s="1">
-        <v>13.118016</v>
+        <v>13.118016000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.550000</v>
+        <v>1330.55</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.590000</v>
+        <v>-171.59</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>47235.330392</v>
+        <v>47235.330392000003</v>
       </c>
       <c r="AA19" s="1">
         <v>13.120925</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.980000</v>
+        <v>1347.98</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.319000</v>
+        <v>-169.31899999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>47245.828715</v>
+        <v>47245.828715000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>13.123841</v>
+        <v>13.123841000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.910000</v>
+        <v>1360.91</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.978000</v>
+        <v>-178.97800000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>47256.602852</v>
+        <v>47256.602852000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.126834</v>
+        <v>13.126834000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1381.620000</v>
+        <v>1381.62</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.750000</v>
+        <v>-208.75</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>47267.443902</v>
+        <v>47267.443901999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.129846</v>
+        <v>13.129846000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1403.330000</v>
+        <v>1403.33</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.466000</v>
+        <v>-252.46600000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>47278.534911</v>
+        <v>47278.534911000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.132926</v>
+        <v>13.132925999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1427.910000</v>
+        <v>1427.91</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.290000</v>
+        <v>-312.29000000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>47289.535680</v>
+        <v>47289.535680000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.135982</v>
       </c>
       <c r="BA19" s="1">
-        <v>1447.260000</v>
+        <v>1447.26</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.329000</v>
+        <v>-364.32900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>47300.219012</v>
+        <v>47300.219012000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.138950</v>
+        <v>13.138949999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1532.630000</v>
+        <v>1532.63</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.128000</v>
+        <v>-612.12800000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>47311.595251</v>
+        <v>47311.595250999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.142110</v>
+        <v>13.142110000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1686.970000</v>
+        <v>1686.97</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1056.360000</v>
+        <v>-1056.3599999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>47322.880731</v>
+        <v>47322.880730999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>13.145245</v>
+        <v>13.145244999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1981.120000</v>
+        <v>1981.12</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1825.750000</v>
+        <v>-1825.75</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>47333.476760</v>
+        <v>47333.476759999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>13.148188</v>
+        <v>13.148187999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.930000</v>
+        <v>2369.9299999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2711.620000</v>
+        <v>-2711.62</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>47344.402137</v>
+        <v>47344.402136999997</v>
       </c>
       <c r="BY19" s="1">
         <v>13.151223</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.570000</v>
+        <v>2850.57</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3682.170000</v>
+        <v>-3682.17</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>47357.283240</v>
+        <v>47357.283239999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.154801</v>
+        <v>13.154801000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4275.580000</v>
+        <v>4275.58</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6022.430000</v>
+        <v>-6022.43</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>47182.869560</v>
+        <v>47182.869559999999</v>
       </c>
       <c r="B20" s="1">
         <v>13.106353</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-306.635000</v>
+        <v>-306.63499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>47193.647135</v>
+        <v>47193.647134999999</v>
       </c>
       <c r="G20" s="1">
         <v>13.109346</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.402000</v>
+        <v>-265.40199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>47204.148897</v>
+        <v>47204.148896999999</v>
       </c>
       <c r="L20" s="1">
         <v>13.112264</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.300000</v>
+        <v>1305.3</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.573000</v>
+        <v>-203.57300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>47214.723107</v>
+        <v>47214.723106999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.115201</v>
+        <v>13.115201000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.092000</v>
+        <v>-185.09200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>47225.278502</v>
+        <v>47225.278502000001</v>
       </c>
       <c r="V20" s="1">
         <v>13.118133</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.600000</v>
+        <v>1330.6</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.634000</v>
+        <v>-171.63399999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>47235.757449</v>
+        <v>47235.757448999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.121044</v>
+        <v>13.121043999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.940000</v>
+        <v>1347.94</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.331000</v>
+        <v>-169.33099999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>47246.109978</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.123919</v>
+        <v>13.123919000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.920000</v>
+        <v>1360.92</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.053000</v>
+        <v>-179.053</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>47256.952493</v>
+        <v>47256.952492999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.126931</v>
+        <v>13.126931000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1381.570000</v>
+        <v>1381.57</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.757000</v>
+        <v>-208.75700000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>47267.804494</v>
+        <v>47267.804494000004</v>
       </c>
       <c r="AP20" s="1">
         <v>13.129946</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1403.300000</v>
+        <v>1403.3</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.457000</v>
+        <v>-252.45699999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>47278.899967</v>
+        <v>47278.899966999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>13.133028</v>
+        <v>13.133027999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1427.930000</v>
+        <v>1427.93</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.340000</v>
+        <v>-312.33999999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>47290.251940</v>
+        <v>47290.251940000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.136181</v>
+        <v>13.136181000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1447.250000</v>
+        <v>1447.25</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.310000</v>
+        <v>-364.31</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>47300.941186</v>
+        <v>47300.941185999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>13.139150</v>
+        <v>13.139150000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.140000</v>
+        <v>-612.14</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>47311.971251</v>
+        <v>47311.971251000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.142214</v>
+        <v>13.142213999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1687.030000</v>
+        <v>1687.03</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1056.440000</v>
+        <v>-1056.44</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>47323.279510</v>
+        <v>47323.27951</v>
       </c>
       <c r="BO20" s="1">
         <v>13.145355</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.940000</v>
+        <v>1980.94</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1825.630000</v>
+        <v>-1825.63</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>47333.893399</v>
@@ -5317,46 +5733,46 @@
         <v>13.148304</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.710000</v>
+        <v>2369.71</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2711.180000</v>
+        <v>-2711.18</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>47345.149111</v>
+        <v>47345.149110999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.151430</v>
+        <v>13.15143</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2851.040000</v>
+        <v>2851.04</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3683.150000</v>
+        <v>-3683.15</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>47357.528496</v>
+        <v>47357.528495999999</v>
       </c>
       <c r="CD20" s="1">
         <v>13.154869</v>
       </c>
       <c r="CE20" s="1">
-        <v>4268.320000</v>
+        <v>4268.32</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6005.240000</v>
+        <v>-6005.24</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>47183.211809</v>
       </c>
@@ -5364,495 +5780,495 @@
         <v>13.106448</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.066000</v>
+        <v>-307.06599999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>47193.990336</v>
+        <v>47193.990336000003</v>
       </c>
       <c r="G21" s="1">
         <v>13.109442</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.950000</v>
+        <v>1269.95</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.183000</v>
+        <v>-265.18299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>47204.492170</v>
+        <v>47204.492169999998</v>
       </c>
       <c r="L21" s="1">
         <v>13.112359</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.080000</v>
+        <v>1305.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.031000</v>
+        <v>-203.03100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>47215.143220</v>
+        <v>47215.143219999998</v>
       </c>
       <c r="Q21" s="1">
         <v>13.115318</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.290000</v>
+        <v>1317.29</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.096000</v>
+        <v>-185.096</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>47225.569125</v>
+        <v>47225.569125000002</v>
       </c>
       <c r="V21" s="1">
         <v>13.118214</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.430000</v>
+        <v>1330.43</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.399000</v>
+        <v>-171.399</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>47236.036727</v>
+        <v>47236.036726999999</v>
       </c>
       <c r="AA21" s="1">
         <v>13.121121</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.940000</v>
+        <v>1347.94</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.343000</v>
+        <v>-169.34299999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>47246.450233</v>
+        <v>47246.450233000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.124014</v>
+        <v>13.124014000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.890000</v>
+        <v>1360.89</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.940000</v>
+        <v>-178.94</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>47257.302172</v>
+        <v>47257.302172000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.127028</v>
+        <v>13.127027999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1381.620000</v>
+        <v>1381.62</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.722000</v>
+        <v>-208.72200000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>47268.168551</v>
+        <v>47268.168551000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>13.130047</v>
+        <v>13.130046999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1403.300000</v>
+        <v>1403.3</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.487000</v>
+        <v>-252.48699999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>47279.629581</v>
+        <v>47279.629581000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.133230</v>
+        <v>13.133229999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1427.910000</v>
+        <v>1427.91</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.325000</v>
+        <v>-312.32499999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>47290.609562</v>
+        <v>47290.609561999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.136280</v>
+        <v>13.136279999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.326000</v>
+        <v>-364.32600000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>47301.330076</v>
+        <v>47301.330075999998</v>
       </c>
       <c r="BE21" s="1">
         <v>13.139258</v>
       </c>
       <c r="BF21" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.128000</v>
+        <v>-612.12800000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>47312.345698</v>
+        <v>47312.345697999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.142318</v>
       </c>
       <c r="BK21" s="1">
-        <v>1687.000000</v>
+        <v>1687</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1056.310000</v>
+        <v>-1056.31</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>47324.005155</v>
+        <v>47324.005154999999</v>
       </c>
       <c r="BO21" s="1">
         <v>13.145557</v>
       </c>
       <c r="BP21" s="1">
-        <v>1981.230000</v>
+        <v>1981.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1825.650000</v>
+        <v>-1825.65</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>47334.614583</v>
+        <v>47334.614583000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.148504</v>
+        <v>13.148504000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2369.300000</v>
+        <v>2369.3000000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2711.490000</v>
+        <v>-2711.49</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>47345.272151</v>
+        <v>47345.272150999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.151464</v>
+        <v>13.151464000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2850.990000</v>
+        <v>2850.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3683.030000</v>
+        <v>-3683.03</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>47358.061958</v>
+        <v>47358.061957999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>13.155017</v>
+        <v>13.155017000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4259.080000</v>
+        <v>4259.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6022.130000</v>
+        <v>-6022.13</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>47183.555996</v>
+        <v>47183.555996000003</v>
       </c>
       <c r="B22" s="1">
         <v>13.106543</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.270000</v>
+        <v>1244.27</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.894000</v>
+        <v>-306.89400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>47194.410479</v>
+        <v>47194.410478999998</v>
       </c>
       <c r="G22" s="1">
         <v>13.109558</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.340000</v>
+        <v>1268.3399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.778000</v>
+        <v>-264.77800000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>47204.913730</v>
+        <v>47204.91373</v>
       </c>
       <c r="L22" s="1">
-        <v>13.112476</v>
+        <v>13.112475999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.930000</v>
+        <v>1304.93</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.221000</v>
+        <v>-203.221</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>47215.431426</v>
+        <v>47215.431426000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.115398</v>
+        <v>13.115398000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.260000</v>
+        <v>1317.26</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.165000</v>
+        <v>-185.16499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>47225.913845</v>
+        <v>47225.913845000003</v>
       </c>
       <c r="V22" s="1">
         <v>13.118309</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.700000</v>
+        <v>1330.7</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.406000</v>
+        <v>-171.40600000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>47236.383399</v>
+        <v>47236.383398999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>13.121218</v>
+        <v>13.121218000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.000000</v>
+        <v>1348</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.222000</v>
+        <v>-169.22200000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>47246.794957</v>
+        <v>47246.794956999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.124110</v>
+        <v>13.12411</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.950000</v>
+        <v>1360.95</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.931000</v>
+        <v>-178.93100000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>47257.996607</v>
+        <v>47257.996607000001</v>
       </c>
       <c r="AK22" s="1">
         <v>13.127221</v>
       </c>
       <c r="AL22" s="1">
-        <v>1381.590000</v>
+        <v>1381.59</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.737000</v>
+        <v>-208.73699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>47268.890732</v>
       </c>
       <c r="AP22" s="1">
-        <v>13.130247</v>
+        <v>13.130247000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1403.330000</v>
+        <v>1403.33</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.473000</v>
+        <v>-252.47300000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>47280.019934</v>
+        <v>47280.019934000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.133339</v>
+        <v>13.133338999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1427.910000</v>
+        <v>1427.91</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.275000</v>
+        <v>-312.27499999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>47290.970643</v>
+        <v>47290.970643000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>13.136381</v>
       </c>
       <c r="BA22" s="1">
-        <v>1447.270000</v>
+        <v>1447.27</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.305000</v>
+        <v>-364.30500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>47301.710480</v>
+        <v>47301.710480000002</v>
       </c>
       <c r="BE22" s="1">
         <v>13.139364</v>
       </c>
       <c r="BF22" s="1">
-        <v>1532.600000</v>
+        <v>1532.6</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.110000</v>
+        <v>-612.11</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>47313.024722</v>
+        <v>47313.024722000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.142507</v>
       </c>
       <c r="BK22" s="1">
-        <v>1687.000000</v>
+        <v>1687</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1056.310000</v>
+        <v>-1056.31</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>47324.115764</v>
+        <v>47324.115764000002</v>
       </c>
       <c r="BO22" s="1">
         <v>13.145588</v>
       </c>
       <c r="BP22" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1825.610000</v>
+        <v>-1825.61</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>47334.723738</v>
+        <v>47334.723738000001</v>
       </c>
       <c r="BT22" s="1">
         <v>13.148534</v>
       </c>
       <c r="BU22" s="1">
-        <v>2368.880000</v>
+        <v>2368.88</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2710.840000</v>
+        <v>-2710.84</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>47345.699174</v>
+        <v>47345.699174000001</v>
       </c>
       <c r="BY22" s="1">
         <v>13.151583</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2851.020000</v>
+        <v>2851.02</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3682.390000</v>
+        <v>-3682.39</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>47358.601637</v>
@@ -5861,255 +6277,255 @@
         <v>13.155167</v>
       </c>
       <c r="CE22" s="1">
-        <v>4276.580000</v>
+        <v>4276.58</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6018.180000</v>
+        <v>-6018.18</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>47183.983052</v>
+        <v>47183.983052000003</v>
       </c>
       <c r="B23" s="1">
         <v>13.106662</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.850000</v>
+        <v>1243.8499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.640000</v>
+        <v>-306.64</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>47194.701102</v>
+        <v>47194.701101999999</v>
       </c>
       <c r="G23" s="1">
         <v>13.109639</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.600000</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.819000</v>
+        <v>-264.81900000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>47205.204384</v>
+        <v>47205.204383999997</v>
       </c>
       <c r="L23" s="1">
-        <v>13.112557</v>
+        <v>13.112557000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.270000</v>
+        <v>1305.27</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.884000</v>
+        <v>-202.88399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>47215.782562</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.115495</v>
+        <v>13.115494999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.179000</v>
+        <v>-185.179</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>47226.258564</v>
+        <v>47226.258564000003</v>
       </c>
       <c r="V23" s="1">
-        <v>13.118405</v>
+        <v>13.118404999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.430000</v>
+        <v>1330.43</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.669000</v>
+        <v>-171.66900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>47236.733110</v>
+        <v>47236.733110000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.121315</v>
+        <v>13.121314999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.810000</v>
+        <v>1347.81</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.259000</v>
+        <v>-169.25899999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>47247.483865</v>
+        <v>47247.483865000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>13.124301</v>
+        <v>13.124301000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.890000</v>
+        <v>1360.89</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.016000</v>
+        <v>-179.01599999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>47258.344267</v>
       </c>
       <c r="AK23" s="1">
-        <v>13.127318</v>
+        <v>13.127318000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1381.610000</v>
+        <v>1381.61</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.709000</v>
+        <v>-208.709</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>47269.248347</v>
+        <v>47269.248347000001</v>
       </c>
       <c r="AP23" s="1">
         <v>13.130347</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1403.330000</v>
+        <v>1403.33</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.454000</v>
+        <v>-252.45400000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>47280.383005</v>
+        <v>47280.383005000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.133440</v>
+        <v>13.13344</v>
       </c>
       <c r="AV23" s="1">
-        <v>1427.900000</v>
+        <v>1427.9</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.354000</v>
+        <v>-312.35399999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>47291.637230</v>
+        <v>47291.63723</v>
       </c>
       <c r="AZ23" s="1">
         <v>13.136566</v>
       </c>
       <c r="BA23" s="1">
-        <v>1447.220000</v>
+        <v>1447.22</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.352000</v>
+        <v>-364.35199999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>47302.381567</v>
+        <v>47302.381566999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.139550</v>
+        <v>13.13955</v>
       </c>
       <c r="BF23" s="1">
-        <v>1532.610000</v>
+        <v>1532.61</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.099000</v>
+        <v>-612.09900000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>47313.470161</v>
+        <v>47313.470160999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.142631</v>
       </c>
       <c r="BK23" s="1">
-        <v>1687.030000</v>
+        <v>1687.03</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1056.270000</v>
+        <v>-1056.27</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>47324.521492</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.145700</v>
+        <v>13.1457</v>
       </c>
       <c r="BP23" s="1">
-        <v>1981.130000</v>
+        <v>1981.13</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1825.540000</v>
+        <v>-1825.54</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>47335.161174</v>
+        <v>47335.161174000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.148656</v>
+        <v>13.148656000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2368.500000</v>
+        <v>2368.5</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2710.930000</v>
+        <v>-2710.93</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>47346.117303</v>
+        <v>47346.117302999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.151699</v>
+        <v>13.151699000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2850.260000</v>
+        <v>2850.26</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3682.010000</v>
+        <v>-3682.01</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>47359.142774</v>
@@ -6118,45 +6534,45 @@
         <v>13.155317</v>
       </c>
       <c r="CE23" s="1">
-        <v>4257.660000</v>
+        <v>4257.66</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6009.390000</v>
+        <v>-6009.39</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>47184.256844</v>
+        <v>47184.256844000003</v>
       </c>
       <c r="B24" s="1">
         <v>13.106738</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.520000</v>
+        <v>1244.52</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.502000</v>
+        <v>-306.50200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>47195.046845</v>
+        <v>47195.046844999997</v>
       </c>
       <c r="G24" s="1">
-        <v>13.109735</v>
+        <v>13.109735000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.500000</v>
+        <v>1269.5</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.262000</v>
+        <v>-264.262</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>47205.550592</v>
@@ -6165,512 +6581,512 @@
         <v>13.112653</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.501000</v>
+        <v>-203.501</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>47216.131747</v>
+        <v>47216.131746999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.115592</v>
+        <v>13.115591999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.160000</v>
+        <v>1317.16</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.159000</v>
+        <v>-185.15899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>47226.946515</v>
+        <v>47226.946515000003</v>
       </c>
       <c r="V24" s="1">
         <v>13.118596</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.340000</v>
+        <v>1330.34</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.603000</v>
+        <v>-171.60300000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>47237.428497</v>
+        <v>47237.428497000001</v>
       </c>
       <c r="AA24" s="1">
         <v>13.121508</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.050000</v>
+        <v>1348.05</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.182000</v>
+        <v>-169.18199999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>47247.825607</v>
+        <v>47247.825606999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>13.124396</v>
+        <v>13.124396000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.920000</v>
+        <v>1360.92</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.940000</v>
+        <v>-178.94</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>47258.693977</v>
+        <v>47258.693977000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.127415</v>
+        <v>13.127414999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1381.610000</v>
+        <v>1381.61</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.730000</v>
+        <v>-208.73</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>47269.610891</v>
+        <v>47269.610890999997</v>
       </c>
       <c r="AP24" s="1">
         <v>13.130447</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1403.320000</v>
+        <v>1403.32</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.474000</v>
+        <v>-252.47399999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>47281.056571</v>
+        <v>47281.056571000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.133627</v>
+        <v>13.133627000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1427.920000</v>
+        <v>1427.92</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.300000</v>
+        <v>-312.3</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>47292.044942</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.136679</v>
+        <v>13.136679000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1447.290000</v>
+        <v>1447.29</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.313000</v>
+        <v>-364.31299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>47302.795727</v>
+        <v>47302.795726999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.139665</v>
+        <v>13.139665000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1532.600000</v>
+        <v>1532.6</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.091000</v>
+        <v>-612.09100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>47313.848081</v>
+        <v>47313.848080999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.142736</v>
+        <v>13.142735999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1686.910000</v>
+        <v>1686.91</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1056.290000</v>
+        <v>-1056.29</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>47324.918787</v>
+        <v>47324.918787000002</v>
       </c>
       <c r="BO24" s="1">
         <v>13.145811</v>
       </c>
       <c r="BP24" s="1">
-        <v>1981.160000</v>
+        <v>1981.16</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1825.550000</v>
+        <v>-1825.55</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>47335.575828</v>
+        <v>47335.575828000001</v>
       </c>
       <c r="BT24" s="1">
         <v>13.148771</v>
       </c>
       <c r="BU24" s="1">
-        <v>2368.330000</v>
+        <v>2368.33</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2710.800000</v>
+        <v>-2710.8</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>47346.563207</v>
+        <v>47346.563206999999</v>
       </c>
       <c r="BY24" s="1">
         <v>13.151823</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2850.190000</v>
+        <v>2850.19</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3682.710000</v>
+        <v>-3682.71</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>47359.685894</v>
+        <v>47359.685894000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.155468</v>
+        <v>13.155468000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4269.010000</v>
+        <v>4269.01</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6028.330000</v>
+        <v>-6028.33</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>47184.597107</v>
+        <v>47184.597107000001</v>
       </c>
       <c r="B25" s="1">
         <v>13.106833</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.310000</v>
+        <v>1244.31</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.670000</v>
+        <v>-306.67</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>47195.389585</v>
+        <v>47195.389584999997</v>
       </c>
       <c r="G25" s="1">
-        <v>13.109830</v>
+        <v>13.109830000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.820000</v>
+        <v>1268.82</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.919000</v>
+        <v>-264.91899999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>47205.899776</v>
+        <v>47205.899775999998</v>
       </c>
       <c r="L25" s="1">
-        <v>13.112750</v>
+        <v>13.11275</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.144000</v>
+        <v>-203.14400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>47216.826641</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.115785</v>
+        <v>13.115785000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.240000</v>
+        <v>1317.24</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.047000</v>
+        <v>-185.047</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>47227.288786</v>
+        <v>47227.288785999997</v>
       </c>
       <c r="V25" s="1">
         <v>13.118691</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.590000</v>
+        <v>1330.59</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.388000</v>
+        <v>-171.38800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>47237.779141</v>
+        <v>47237.779140999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>13.121605</v>
+        <v>13.121605000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.920000</v>
+        <v>1347.92</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.324000</v>
+        <v>-169.32400000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>47248.168839</v>
+        <v>47248.168838999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>13.124491</v>
+        <v>13.124491000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.970000</v>
+        <v>1360.97</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.942000</v>
+        <v>-178.94200000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>47259.360569</v>
+        <v>47259.360568999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>13.127600</v>
+        <v>13.127599999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1381.600000</v>
+        <v>1381.6</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.749000</v>
+        <v>-208.749</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>47270.281484</v>
+        <v>47270.281483999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.130634</v>
+        <v>13.130634000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1403.310000</v>
+        <v>1403.31</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.466000</v>
+        <v>-252.46600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>47281.514876</v>
+        <v>47281.514876000001</v>
       </c>
       <c r="AU25" s="1">
         <v>13.133754</v>
       </c>
       <c r="AV25" s="1">
-        <v>1427.880000</v>
+        <v>1427.88</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.286000</v>
+        <v>-312.286</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>47292.434346</v>
+        <v>47292.434346000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.136787</v>
       </c>
       <c r="BA25" s="1">
-        <v>1447.280000</v>
+        <v>1447.28</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.313000</v>
+        <v>-364.31299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>47303.185582</v>
+        <v>47303.185581999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.139774</v>
+        <v>13.139773999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1532.620000</v>
+        <v>1532.62</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.126000</v>
+        <v>-612.12599999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>47314.211648</v>
+        <v>47314.211647999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.142837</v>
       </c>
       <c r="BK25" s="1">
-        <v>1686.880000</v>
+        <v>1686.88</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1056.290000</v>
+        <v>-1056.29</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>47325.341377</v>
+        <v>47325.341376999997</v>
       </c>
       <c r="BO25" s="1">
         <v>13.145928</v>
       </c>
       <c r="BP25" s="1">
-        <v>1981.080000</v>
+        <v>1981.08</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1825.620000</v>
+        <v>-1825.62</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>47336.002884</v>
+        <v>47336.002884000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>13.148890</v>
+        <v>13.14889</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.850000</v>
+        <v>2367.85</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2710.770000</v>
+        <v>-2710.77</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>47346.985302</v>
+        <v>47346.985302000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.151940</v>
+        <v>13.15194</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2850.810000</v>
+        <v>2850.81</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3682.740000</v>
+        <v>-3682.74</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>47360.222066</v>
+        <v>47360.222066000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.155617</v>
+        <v>13.155616999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4267.560000</v>
+        <v>4267.5600000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6004.020000</v>
+        <v>-6004.02</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>47184.939376</v>
+        <v>47184.939376000002</v>
       </c>
       <c r="B26" s="1">
         <v>13.106928</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.540000</v>
+        <v>1244.54</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.883000</v>
+        <v>-306.88299999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>47196.079981</v>
+        <v>47196.079981000003</v>
       </c>
       <c r="G26" s="1">
-        <v>13.110022</v>
+        <v>13.110022000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.880000</v>
+        <v>1269.8800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.348000</v>
+        <v>-264.34800000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>47206.595662</v>
@@ -6679,225 +7095,226 @@
         <v>13.112943</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.370000</v>
+        <v>1305.3699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.125000</v>
+        <v>-203.125</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>47217.176320</v>
+        <v>47217.176319999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>13.115882</v>
+        <v>13.115881999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.048000</v>
+        <v>-185.048</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>47227.631988</v>
+        <v>47227.631988000001</v>
       </c>
       <c r="V26" s="1">
-        <v>13.118787</v>
+        <v>13.118786999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.360000</v>
+        <v>1330.36</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.548000</v>
+        <v>-171.548</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>47238.130836</v>
+        <v>47238.130835999997</v>
       </c>
       <c r="AA26" s="1">
         <v>13.121703</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.960000</v>
+        <v>1347.96</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.428000</v>
+        <v>-169.428</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>47248.818135</v>
+        <v>47248.818135000001</v>
       </c>
       <c r="AF26" s="1">
         <v>13.124672</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.900000</v>
+        <v>1360.9</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.901000</v>
+        <v>-178.90100000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>47259.742985</v>
+        <v>47259.742984999997</v>
       </c>
       <c r="AK26" s="1">
         <v>13.127706</v>
       </c>
       <c r="AL26" s="1">
-        <v>1381.600000</v>
+        <v>1381.6</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.748000</v>
+        <v>-208.74799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>47270.718457</v>
+        <v>47270.718457000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.130755</v>
+        <v>13.130755000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1403.320000</v>
+        <v>1403.32</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.474000</v>
+        <v>-252.47399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>47281.876986</v>
+        <v>47281.876986000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.133855</v>
+        <v>13.133855000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1427.930000</v>
+        <v>1427.93</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.317000</v>
+        <v>-312.31700000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>47292.790429</v>
+        <v>47292.790429000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.136886</v>
+        <v>13.136886000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1447.250000</v>
+        <v>1447.25</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.302000</v>
+        <v>-364.30200000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>47303.544719</v>
+        <v>47303.544718999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.139874</v>
+        <v>13.139874000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1532.600000</v>
+        <v>1532.6</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.144000</v>
+        <v>-612.14400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>47314.641717</v>
+        <v>47314.641716999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.142956</v>
       </c>
       <c r="BK26" s="1">
-        <v>1687.020000</v>
+        <v>1687.02</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1056.180000</v>
+        <v>-1056.18</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>47325.735697</v>
+        <v>47325.735696999996</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.146038</v>
+        <v>13.146038000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1981.020000</v>
+        <v>1981.02</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1825.570000</v>
+        <v>-1825.57</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>47336.405667</v>
+        <v>47336.405666999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.149002</v>
+        <v>13.149001999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.290000</v>
+        <v>2367.29</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2710.580000</v>
+        <v>-2710.58</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>47347.409908</v>
+        <v>47347.409908000001</v>
       </c>
       <c r="BY26" s="1">
         <v>13.152058</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2850.790000</v>
+        <v>2850.79</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3682.810000</v>
+        <v>-3682.81</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>47360.766147</v>
+        <v>47360.766147000002</v>
       </c>
       <c r="CD26" s="1">
         <v>13.155768</v>
       </c>
       <c r="CE26" s="1">
-        <v>4259.770000</v>
+        <v>4259.7700000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6022.070000</v>
+        <v>-6022.07</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>